--- a/docentes/Herrera Serrano Mayra Iliana - Estadisticos 20211.xlsx
+++ b/docentes/Herrera Serrano Mayra Iliana - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>Mat</t>
   </si>
@@ -80,6 +80,51 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>MOTA</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>MARIA DEL PILAR</t>
+  </si>
+  <si>
+    <t>EDNA</t>
+  </si>
+  <si>
+    <t>DIEGO EMILIO</t>
+  </si>
+  <si>
+    <t>YULIET</t>
+  </si>
+  <si>
+    <t>ANGEL DIEGO</t>
   </si>
 </sst>
 </file>
@@ -483,16 +528,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>73.53</v>
+      </c>
+      <c r="H2">
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -506,16 +554,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>70.97</v>
+      </c>
+      <c r="H3">
+        <v>7.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -529,16 +580,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>80.56</v>
+      </c>
+      <c r="H4">
+        <v>7.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -552,16 +606,19 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>74.42</v>
+      </c>
+      <c r="H5">
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -575,16 +632,19 @@
         <v>44</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H6">
+        <v>7.4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -598,16 +658,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>95.83</v>
+      </c>
+      <c r="H7">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +729,7 @@
         <v>34</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -689,7 +752,7 @@
         <v>31</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -712,7 +775,7 @@
         <v>36</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -735,7 +798,7 @@
         <v>43</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -758,7 +821,7 @@
         <v>44</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -781,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -843,16 +906,19 @@
         <v>34</v>
       </c>
       <c r="D2">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>73.53</v>
+      </c>
+      <c r="H2">
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -866,16 +932,19 @@
         <v>31</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>70.97</v>
+      </c>
+      <c r="H3">
+        <v>7.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -889,16 +958,19 @@
         <v>36</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>80.56</v>
+      </c>
+      <c r="H4">
+        <v>7.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -912,16 +984,19 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>74.42</v>
+      </c>
+      <c r="H5">
+        <v>7.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -935,16 +1010,19 @@
         <v>44</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="H6">
+        <v>7.4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -958,16 +1036,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>95.83</v>
+      </c>
+      <c r="H7">
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1010,6 +1091,121 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>21330051920241</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>21330051920297</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920323</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>21330051920303</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>21330051920308</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Herrera Serrano Mayra Iliana - Estadisticos 20211.xlsx
+++ b/docentes/Herrera Serrano Mayra Iliana - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
   <si>
     <t>Mat</t>
   </si>
@@ -88,43 +88,16 @@
     <t>DOMINGUEZ</t>
   </si>
   <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>MOTA</t>
-  </si>
-  <si>
     <t>LOPEZ</t>
   </si>
   <si>
     <t>APALE</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
     <t>MARIA DEL PILAR</t>
   </si>
   <si>
     <t>EDNA</t>
-  </si>
-  <si>
-    <t>DIEGO EMILIO</t>
-  </si>
-  <si>
-    <t>YULIET</t>
-  </si>
-  <si>
-    <t>ANGEL DIEGO</t>
   </si>
 </sst>
 </file>
@@ -629,22 +602,22 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>83.72</v>
       </c>
       <c r="H6">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -815,13 +788,13 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1007,22 +980,22 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G6">
-        <v>75</v>
+        <v>83.72</v>
       </c>
       <c r="H6">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1058,7 +1031,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1099,10 +1072,10 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1122,10 +1095,10 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1134,75 +1107,6 @@
         <v>13</v>
       </c>
       <c r="G3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>21330051920323</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>21330051920303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>21330051920308</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6">
         <v>6</v>
       </c>
     </row>

--- a/docentes/Herrera Serrano Mayra Iliana - Estadisticos 20211.xlsx
+++ b/docentes/Herrera Serrano Mayra Iliana - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>Mat</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
     <t>MONTERO</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
   </si>
   <si>
     <t>APALE</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
   </si>
   <si>
     <t>MARIA DEL PILAR</t>
@@ -1031,7 +1037,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1066,22 +1072,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>21330051920241</v>
+        <v>21330051920168</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>6</v>
@@ -1089,7 +1095,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>21330051920297</v>
+        <v>21330051920241</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1098,15 +1104,38 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>21330051920297</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>6</v>
       </c>
     </row>
